--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30ED741-808E-8A48-BE55-9EC1BB6B2BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{257DA8C6-E251-4E4E-8E51-3BF9EDB1A6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="1140" windowWidth="27640" windowHeight="16940" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -4284,7 +4284,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{257DA8C6-E251-4E4E-8E51-3BF9EDB1A6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30ED741-808E-8A48-BE55-9EC1BB6B2BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="1140" windowWidth="27640" windowHeight="16940" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
@@ -4284,7 +4284,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDAF17-09F3-CD40-BF2B-5E70FD72D5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB535D-2014-154B-9327-307F351C43FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1880" windowWidth="33120" windowHeight="12460" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="3580" yWindow="4720" windowWidth="33120" windowHeight="12460" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>
@@ -3636,14 +3636,14 @@
     <t>TNM-054-40-2025-V</t>
   </si>
   <si>
-    <t xml:space="preserve">               </t>
+    <t>TNM-054-53-2025-011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3699,6 +3699,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3958,6 +3964,26 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -4031,6 +4057,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4080,27 +4107,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4132,6 +4138,26 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -4148,26 +4174,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -4594,6 +4600,7 @@
       <sheetName val="Hoja1"/>
       <sheetName val="Hoja4"/>
       <sheetName val="Hoja2"/>
+      <sheetName val="Concentrado de cursos 2025"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -4608,6 +4615,7 @@
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4633,13 +4641,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B508AFF-503A-7943-8DD5-D06EBFCC8B62}" name="PARTICIPANTES16183" displayName="PARTICIPANTES16183" ref="A1:F2" insertRow="1" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="6">
     <tableColumn id="17" xr3:uid="{81EB27DA-9005-8343-8270-24F41F32CD2D}" name="Folio" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="Nombre" dataDxfId="7" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{783F0072-DA7B-3140-83D6-27D662F54BBB}" name="Nombre" dataDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="8" xr3:uid="{D0D33A24-B6D2-2541-8F70-5398A340F57E}" name="Curso" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="Departamento" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="9" xr3:uid="{AB02D729-8232-8643-B88A-00257BFDD549}" name="Departamento" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(PARTICIPANTES16183[[#This Row],[Nombre]]="","",VLOOKUP(PARTICIPANTES16183[[#This Row],[Nombre]],[2]!BD_DOCENTES[#Data],2,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="Fecha" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="Duracion" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{DF3AACD7-1A51-AB47-9454-2F951F317051}" name="Fecha" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{88C52EF0-15CE-8445-A82B-DCF650F2DA69}" name="Duracion" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14030,12 +14038,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A234" sqref="A234"/>
+      <selection pane="bottomLeft" activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18734,19 +18742,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="27" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B237" t="s">
+        <v>237</v>
+      </c>
+      <c r="C237" t="s">
+        <v>353</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E237" t="s">
+        <v>354</v>
+      </c>
+      <c r="F237" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>1120</v>
       </c>
       <c r="C238" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E238" t="s">
         <v>354</v>
@@ -18757,16 +18784,16 @@
     </row>
     <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B239" t="s">
-        <v>1120</v>
+        <v>1164</v>
       </c>
       <c r="C239" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D239" t="s">
-        <v>1136</v>
+        <v>22</v>
       </c>
       <c r="E239" t="s">
         <v>354</v>
@@ -18777,16 +18804,16 @@
     </row>
     <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B240" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C240" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D240" t="s">
-        <v>22</v>
+        <v>1134</v>
       </c>
       <c r="E240" t="s">
         <v>354</v>
@@ -18797,16 +18824,16 @@
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B241" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C241" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D241" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E241" t="s">
         <v>354</v>
@@ -18817,16 +18844,16 @@
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B242" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C242" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D242" t="s">
-        <v>1135</v>
+        <v>12</v>
       </c>
       <c r="E242" t="s">
         <v>354</v>
@@ -18837,16 +18864,16 @@
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B243" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C243" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D243" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E243" t="s">
         <v>354</v>
@@ -18857,13 +18884,13 @@
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B244" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C244" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D244" t="s">
         <v>16</v>
@@ -18877,13 +18904,13 @@
     </row>
     <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B245" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C245" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
@@ -18897,16 +18924,16 @@
     </row>
     <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1150</v>
+        <v>1184</v>
       </c>
       <c r="B246" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C246" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E246" t="s">
         <v>354</v>
@@ -18917,19 +18944,19 @@
     </row>
     <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1171</v>
+        <v>1191</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>1189</v>
       </c>
       <c r="C247" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D247" t="s">
-        <v>12</v>
+        <v>1181</v>
       </c>
       <c r="E247" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="F247" t="s">
         <v>9</v>
@@ -18937,10 +18964,10 @@
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C248" t="s">
         <v>387</v>
@@ -18957,10 +18984,10 @@
     </row>
     <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C249" t="s">
         <v>387</v>
@@ -18977,10 +19004,10 @@
     </row>
     <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C250" t="s">
         <v>387</v>
@@ -18997,10 +19024,10 @@
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C251" t="s">
         <v>387</v>
@@ -19017,16 +19044,16 @@
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B252" s="11" t="s">
-        <v>1188</v>
+        <v>1151</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1126</v>
       </c>
       <c r="C252" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D252" t="s">
-        <v>1181</v>
+        <v>1136</v>
       </c>
       <c r="E252" t="s">
         <v>388</v>
@@ -19037,16 +19064,16 @@
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B253" t="s">
-        <v>1126</v>
+        <v>1172</v>
       </c>
       <c r="C253" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D253" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E253" t="s">
         <v>388</v>
@@ -19057,13 +19084,13 @@
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B254" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C254" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D254" t="s">
         <v>1135</v>
@@ -19077,16 +19104,16 @@
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B255" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C255" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D255" t="s">
-        <v>1135</v>
+        <v>1182</v>
       </c>
       <c r="E255" t="s">
         <v>388</v>
@@ -19097,16 +19124,16 @@
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B256" t="s">
-        <v>1174</v>
+        <v>156</v>
       </c>
       <c r="C256" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D256" t="s">
-        <v>1182</v>
+        <v>16</v>
       </c>
       <c r="E256" t="s">
         <v>388</v>
@@ -19117,13 +19144,13 @@
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B257" t="s">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="C257" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D257" t="s">
         <v>16</v>
@@ -19137,16 +19164,16 @@
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B258" t="s">
-        <v>312</v>
+        <v>1175</v>
       </c>
       <c r="C258" t="s">
-        <v>408</v>
+        <v>1179</v>
       </c>
       <c r="D258" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E258" t="s">
         <v>388</v>
@@ -19157,16 +19184,16 @@
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B259" t="s">
-        <v>1175</v>
+        <v>324</v>
       </c>
       <c r="C259" t="s">
-        <v>1179</v>
+        <v>415</v>
       </c>
       <c r="D259" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E259" t="s">
         <v>388</v>
@@ -19177,13 +19204,13 @@
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B260" t="s">
-        <v>324</v>
+        <v>1159</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C260" t="s">
-        <v>415</v>
+        <v>1180</v>
       </c>
       <c r="D260" t="s">
         <v>22</v>
@@ -19197,16 +19224,16 @@
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>127</v>
+        <v>1160</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1176</v>
       </c>
       <c r="C261" t="s">
-        <v>1180</v>
+        <v>416</v>
       </c>
       <c r="D261" t="s">
-        <v>22</v>
+        <v>1134</v>
       </c>
       <c r="E261" t="s">
         <v>388</v>
@@ -19217,16 +19244,16 @@
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B262" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C262" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D262" t="s">
-        <v>1134</v>
+        <v>16</v>
       </c>
       <c r="E262" t="s">
         <v>388</v>
@@ -19237,16 +19264,16 @@
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B263" t="s">
-        <v>1177</v>
+        <v>109</v>
       </c>
       <c r="C263" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>1136</v>
       </c>
       <c r="E263" t="s">
         <v>388</v>
@@ -19257,16 +19284,16 @@
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B264" t="s">
-        <v>109</v>
+        <v>1178</v>
       </c>
       <c r="C264" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D264" t="s">
-        <v>1136</v>
+        <v>1183</v>
       </c>
       <c r="E264" t="s">
         <v>388</v>
@@ -19275,27 +19302,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B265" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C265" t="s">
-        <v>425</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E265" t="s">
-        <v>388</v>
-      </c>
-      <c r="F265" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <tableParts count="1">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB535D-2014-154B-9327-307F351C43FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D59787D-2AD4-234E-B3EF-972B6D29E518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="4720" windowWidth="33120" windowHeight="12460" activeTab="1" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="440" yWindow="740" windowWidth="33120" windowHeight="12460" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="1198">
   <si>
     <t>Nombre</t>
   </si>
@@ -3381,9 +3381,6 @@
     <t>TNM-054-22-2025</t>
   </si>
   <si>
-    <t>TNM-054-23-2025</t>
-  </si>
-  <si>
     <t>TNM-054-24-2025</t>
   </si>
   <si>
@@ -3636,14 +3633,23 @@
     <t>TNM-054-40-2025-V</t>
   </si>
   <si>
-    <t>TNM-054-53-2025-011</t>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t>TNM-054-23-2025-I</t>
+  </si>
+  <si>
+    <t>TNM-054-23-2025-II</t>
+  </si>
+  <si>
+    <t>TNM-054-23-2025-III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3699,12 +3705,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4970,12 +4970,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE329E-0C32-C347-895C-9B9ADC4E5E27}">
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:F455"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="G426" sqref="G426"/>
+      <selection pane="bottomLeft" activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13454,13 +13454,13 @@
         <v>1088</v>
       </c>
       <c r="B425" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C425" t="s">
         <v>6</v>
       </c>
       <c r="D425" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E425" s="31" t="s">
         <v>8</v>
@@ -13474,13 +13474,13 @@
         <v>1089</v>
       </c>
       <c r="B426" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C426" t="s">
         <v>42</v>
       </c>
       <c r="D426" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E426" s="31" t="s">
         <v>8</v>
@@ -13494,13 +13494,13 @@
         <v>1090</v>
       </c>
       <c r="B427" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C427" t="s">
         <v>83</v>
       </c>
       <c r="D427" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E427" s="31" t="s">
         <v>8</v>
@@ -13514,13 +13514,13 @@
         <v>1091</v>
       </c>
       <c r="B428" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C428" t="s">
         <v>89</v>
       </c>
       <c r="D428" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E428" s="31" t="s">
         <v>8</v>
@@ -13534,13 +13534,13 @@
         <v>1092</v>
       </c>
       <c r="B429" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C429" t="s">
         <v>130</v>
       </c>
       <c r="D429" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E429" s="31" t="s">
         <v>8</v>
@@ -13560,7 +13560,7 @@
         <v>141</v>
       </c>
       <c r="D430" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E430" s="31" t="s">
         <v>8</v>
@@ -13580,7 +13580,7 @@
         <v>161</v>
       </c>
       <c r="D431" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E431" s="31" t="s">
         <v>8</v>
@@ -13594,7 +13594,7 @@
         <v>1095</v>
       </c>
       <c r="B432" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C432" t="s">
         <v>170</v>
@@ -13614,7 +13614,7 @@
         <v>1096</v>
       </c>
       <c r="B433" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C433" t="s">
         <v>194</v>
@@ -13634,7 +13634,7 @@
         <v>1097</v>
       </c>
       <c r="B434" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C434" t="s">
         <v>210</v>
@@ -13654,13 +13654,13 @@
         <v>1098</v>
       </c>
       <c r="B435" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C435" t="s">
         <v>221</v>
       </c>
       <c r="D435" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E435" s="31" t="s">
         <v>8</v>
@@ -13700,7 +13700,7 @@
         <v>238</v>
       </c>
       <c r="D437" s="13" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E437" s="32" t="s">
         <v>8</v>
@@ -13714,13 +13714,13 @@
         <v>1101</v>
       </c>
       <c r="B438" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C438" t="s">
         <v>257</v>
       </c>
       <c r="D438" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E438" s="31" t="s">
         <v>258</v>
@@ -13734,13 +13734,13 @@
         <v>1102</v>
       </c>
       <c r="B439" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C439" t="s">
         <v>262</v>
       </c>
       <c r="D439" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E439" s="31" t="s">
         <v>258</v>
@@ -13754,13 +13754,13 @@
         <v>1103</v>
       </c>
       <c r="B440" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C440" t="s">
         <v>275</v>
       </c>
       <c r="D440" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E440" s="31" t="s">
         <v>258</v>
@@ -13774,13 +13774,13 @@
         <v>1104</v>
       </c>
       <c r="B441" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C441" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D441" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E441" s="31" t="s">
         <v>258</v>
@@ -13794,7 +13794,7 @@
         <v>1105</v>
       </c>
       <c r="B442" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C442" t="s">
         <v>300</v>
@@ -13814,7 +13814,7 @@
         <v>1106</v>
       </c>
       <c r="B443" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C443" t="s">
         <v>303</v>
@@ -13874,13 +13874,13 @@
         <v>1109</v>
       </c>
       <c r="B446" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C446" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D446" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E446" s="31" t="s">
         <v>258</v>
@@ -13891,16 +13891,16 @@
     </row>
     <row r="447" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1110</v>
+        <v>1195</v>
       </c>
       <c r="B447" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C447" t="s">
         <v>315</v>
       </c>
       <c r="D447" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E447" s="31" t="s">
         <v>258</v>
@@ -13911,53 +13911,47 @@
     </row>
     <row r="448" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1111</v>
+        <v>1196</v>
       </c>
       <c r="B448" t="s">
-        <v>218</v>
-      </c>
-      <c r="C448" s="30" t="s">
-        <v>323</v>
+        <v>25</v>
+      </c>
+      <c r="C448" t="s">
+        <v>315</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1140</v>
       </c>
       <c r="E448" s="31" t="s">
         <v>258</v>
-      </c>
-      <c r="F448" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1112</v>
+        <v>1197</v>
       </c>
       <c r="B449" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C449" s="30" t="s">
-        <v>329</v>
+        <v>5</v>
+      </c>
+      <c r="C449" t="s">
+        <v>315</v>
       </c>
       <c r="D449" t="s">
-        <v>12</v>
+        <v>1140</v>
       </c>
       <c r="E449" s="31" t="s">
         <v>258</v>
-      </c>
-      <c r="F449" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B450" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="C450" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="D450" t="s">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="E450" s="31" t="s">
         <v>258</v>
@@ -13968,13 +13962,13 @@
     </row>
     <row r="451" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B451" t="s">
-        <v>386</v>
-      </c>
-      <c r="C451" t="s">
-        <v>345</v>
+        <v>1130</v>
+      </c>
+      <c r="C451" s="30" t="s">
+        <v>329</v>
       </c>
       <c r="D451" t="s">
         <v>12</v>
@@ -13988,16 +13982,16 @@
     </row>
     <row r="452" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B452" t="s">
-        <v>358</v>
-      </c>
-      <c r="C452" t="s">
-        <v>349</v>
+        <v>98</v>
+      </c>
+      <c r="C452" s="30" t="s">
+        <v>338</v>
       </c>
       <c r="D452" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E452" s="31" t="s">
         <v>258</v>
@@ -14008,21 +14002,61 @@
     </row>
     <row r="453" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B453" s="29" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B453" t="s">
+        <v>386</v>
+      </c>
+      <c r="C453" t="s">
+        <v>345</v>
+      </c>
+      <c r="D453" t="s">
+        <v>12</v>
+      </c>
+      <c r="E453" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="F453" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B454" t="s">
+        <v>358</v>
+      </c>
+      <c r="C454" t="s">
+        <v>349</v>
+      </c>
+      <c r="D454" t="s">
+        <v>22</v>
+      </c>
+      <c r="E454" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="F454" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B455" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="C453" s="29" t="s">
+      <c r="C455" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="D453" s="29" t="s">
+      <c r="D455" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E453" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F453" s="29" t="s">
+      <c r="E455" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F455" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14038,12 +14072,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B243" sqref="B243"/>
+      <selection pane="bottomLeft" activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18684,7 +18718,7 @@
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="23" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B234" t="s">
         <v>332</v>
@@ -18742,38 +18776,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B237" t="s">
-        <v>237</v>
-      </c>
-      <c r="C237" t="s">
-        <v>353</v>
-      </c>
-      <c r="D237" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E237" t="s">
-        <v>354</v>
-      </c>
-      <c r="F237" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="237" spans="1:6" s="27" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B238" t="s">
-        <v>1120</v>
+        <v>237</v>
       </c>
       <c r="C238" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D238" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="E238" t="s">
         <v>354</v>
@@ -18784,16 +18799,16 @@
     </row>
     <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B239" t="s">
-        <v>1164</v>
+        <v>1119</v>
       </c>
       <c r="C239" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D239" t="s">
-        <v>22</v>
+        <v>1135</v>
       </c>
       <c r="E239" t="s">
         <v>354</v>
@@ -18804,16 +18819,16 @@
     </row>
     <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B240" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C240" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D240" t="s">
-        <v>1134</v>
+        <v>22</v>
       </c>
       <c r="E240" t="s">
         <v>354</v>
@@ -18824,16 +18839,16 @@
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B241" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C241" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D241" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E241" t="s">
         <v>354</v>
@@ -18844,16 +18859,16 @@
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B242" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C242" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D242" t="s">
-        <v>12</v>
+        <v>1134</v>
       </c>
       <c r="E242" t="s">
         <v>354</v>
@@ -18864,16 +18879,16 @@
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B243" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C243" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E243" t="s">
         <v>354</v>
@@ -18884,13 +18899,13 @@
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B244" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C244" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D244" t="s">
         <v>16</v>
@@ -18904,13 +18919,13 @@
     </row>
     <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B245" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C245" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
@@ -18924,16 +18939,16 @@
     </row>
     <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1184</v>
+        <v>1149</v>
       </c>
       <c r="B246" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C246" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D246" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E246" t="s">
         <v>354</v>
@@ -18944,19 +18959,19 @@
     </row>
     <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B247" s="11" t="s">
-        <v>1189</v>
+        <v>1183</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1170</v>
       </c>
       <c r="C247" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D247" t="s">
-        <v>1181</v>
+        <v>12</v>
       </c>
       <c r="E247" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="F247" t="s">
         <v>9</v>
@@ -18967,13 +18982,13 @@
         <v>1190</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="C248" t="s">
         <v>387</v>
       </c>
       <c r="D248" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E248" t="s">
         <v>388</v>
@@ -18984,16 +18999,16 @@
     </row>
     <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C249" t="s">
         <v>387</v>
       </c>
       <c r="D249" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E249" t="s">
         <v>388</v>
@@ -19004,16 +19019,16 @@
     </row>
     <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C250" t="s">
         <v>387</v>
       </c>
       <c r="D250" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E250" t="s">
         <v>388</v>
@@ -19024,16 +19039,16 @@
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C251" t="s">
         <v>387</v>
       </c>
       <c r="D251" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E251" t="s">
         <v>388</v>
@@ -19044,16 +19059,16 @@
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1126</v>
+        <v>1193</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>1187</v>
       </c>
       <c r="C252" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D252" t="s">
-        <v>1136</v>
+        <v>1180</v>
       </c>
       <c r="E252" t="s">
         <v>388</v>
@@ -19064,13 +19079,13 @@
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B253" t="s">
-        <v>1172</v>
+        <v>1125</v>
       </c>
       <c r="C253" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D253" t="s">
         <v>1135</v>
@@ -19084,16 +19099,16 @@
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B254" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C254" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D254" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E254" t="s">
         <v>388</v>
@@ -19104,16 +19119,16 @@
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B255" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C255" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D255" t="s">
-        <v>1182</v>
+        <v>1134</v>
       </c>
       <c r="E255" t="s">
         <v>388</v>
@@ -19124,16 +19139,16 @@
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B256" t="s">
-        <v>156</v>
+        <v>1173</v>
       </c>
       <c r="C256" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D256" t="s">
-        <v>16</v>
+        <v>1181</v>
       </c>
       <c r="E256" t="s">
         <v>388</v>
@@ -19144,13 +19159,13 @@
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B257" t="s">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="C257" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D257" t="s">
         <v>16</v>
@@ -19164,16 +19179,16 @@
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B258" t="s">
-        <v>1175</v>
+        <v>312</v>
       </c>
       <c r="C258" t="s">
-        <v>1179</v>
+        <v>408</v>
       </c>
       <c r="D258" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E258" t="s">
         <v>388</v>
@@ -19184,16 +19199,16 @@
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B259" t="s">
-        <v>324</v>
+        <v>1174</v>
       </c>
       <c r="C259" t="s">
-        <v>415</v>
+        <v>1178</v>
       </c>
       <c r="D259" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E259" t="s">
         <v>388</v>
@@ -19204,13 +19219,13 @@
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B260" s="11" t="s">
-        <v>127</v>
+        <v>1157</v>
+      </c>
+      <c r="B260" t="s">
+        <v>324</v>
       </c>
       <c r="C260" t="s">
-        <v>1180</v>
+        <v>415</v>
       </c>
       <c r="D260" t="s">
         <v>22</v>
@@ -19224,16 +19239,16 @@
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1176</v>
+        <v>1158</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C261" t="s">
-        <v>416</v>
+        <v>1179</v>
       </c>
       <c r="D261" t="s">
-        <v>1134</v>
+        <v>22</v>
       </c>
       <c r="E261" t="s">
         <v>388</v>
@@ -19244,16 +19259,16 @@
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B262" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C262" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D262" t="s">
-        <v>16</v>
+        <v>1133</v>
       </c>
       <c r="E262" t="s">
         <v>388</v>
@@ -19264,16 +19279,16 @@
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B263" t="s">
-        <v>109</v>
+        <v>1176</v>
       </c>
       <c r="C263" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D263" t="s">
-        <v>1136</v>
+        <v>16</v>
       </c>
       <c r="E263" t="s">
         <v>388</v>
@@ -19284,16 +19299,16 @@
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B264" t="s">
-        <v>1178</v>
+        <v>109</v>
       </c>
       <c r="C264" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D264" t="s">
-        <v>1183</v>
+        <v>1135</v>
       </c>
       <c r="E264" t="s">
         <v>388</v>
@@ -19302,8 +19317,27 @@
         <v>9</v>
       </c>
     </row>
+    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C265" t="s">
+        <v>425</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E265" t="s">
+        <v>388</v>
+      </c>
+      <c r="F265" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <tableParts count="1">

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/Validacion WEB 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D59787D-2AD4-234E-B3EF-972B6D29E518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2057F4BD-D196-E842-8466-5AEC03B9BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="740" windowWidth="33120" windowHeight="12460" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
+    <workbookView xWindow="440" yWindow="740" windowWidth="33120" windowHeight="17160" xr2:uid="{6728D57D-078C-EB4A-903D-70A501F530A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="4" r:id="rId1"/>
@@ -3633,9 +3633,6 @@
     <t>TNM-054-40-2025-V</t>
   </si>
   <si>
-    <t xml:space="preserve">               </t>
-  </si>
-  <si>
     <t>TNM-054-23-2025-I</t>
   </si>
   <si>
@@ -3643,6 +3640,9 @@
   </si>
   <si>
     <t>TNM-054-23-2025-III</t>
+  </si>
+  <si>
+    <t>TNM-054-53-2025-011</t>
   </si>
 </sst>
 </file>
@@ -4973,9 +4973,9 @@
   <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B451" sqref="B451"/>
+      <selection pane="bottomLeft" activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13891,7 +13891,7 @@
     </row>
     <row r="447" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B447" t="s">
         <v>1129</v>
@@ -13911,7 +13911,7 @@
     </row>
     <row r="448" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B448" t="s">
         <v>25</v>
@@ -13928,7 +13928,7 @@
     </row>
     <row r="449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B449" t="s">
         <v>5</v>
@@ -14074,10 +14074,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4E2C6-ECF6-8E42-BACE-6A57540CDA47}">
   <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A234" sqref="A234"/>
+      <selection pane="bottomLeft" activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18718,7 +18718,7 @@
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="23" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B234" t="s">
         <v>332</v>
